--- a/config_12.15/fish3d_map_config.xlsx
+++ b/config_12.15/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
@@ -973,10 +973,6 @@
   </si>
   <si>
     <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1579,9 +1575,9 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1752,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1793,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1834,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1875,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1916,7 +1912,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1997,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2117,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2198,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2239,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2280,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2359,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2437,10 +2433,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2520,7 +2516,7 @@
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2530,10 +2526,10 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
@@ -2578,7 +2574,7 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
@@ -2612,7 +2608,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2622,10 +2618,10 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
@@ -2659,7 +2655,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2715,7 +2711,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2750,7 +2746,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2760,10 +2756,10 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
@@ -2807,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2882,7 +2878,7 @@
         <v>61</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2964,7 +2960,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -3001,7 +2997,7 @@
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3038,7 +3034,7 @@
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3075,7 +3071,7 @@
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3112,7 +3108,7 @@
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3122,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3196,10 +3192,10 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
@@ -3236,7 +3232,7 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
@@ -3273,7 +3269,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3382,7 +3378,7 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
@@ -3528,7 +3524,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3565,7 +3561,7 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
@@ -3602,13 +3598,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L50" s="12" t="s">
         <v>188</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3655,13 +3651,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3672,13 +3668,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L52" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
